--- a/medicine/Psychotrope/William_Le_Lacheur/William_Le_Lacheur.xlsx
+++ b/medicine/Psychotrope/William_Le_Lacheur/William_Le_Lacheur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Le Lacheur, né le 15 octobre 1802 à La Forêt, sur l’île de Guernesey et mort le 27 juin 1863 à Londres, est un navigateur guernesiais qui a joué un rôle important dans le développement économique et spirituel du Costa Rica.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Le Lacheur est né le 15 octobre 1802 et a été baptisé Guillaume Le Lacheur (version française du prénom) dans l'église paroissiale de La Forêt, sur l’île anglo-normande de Guernesey, le 31 octobre, par ses parents. Il a été nommé d’après son grand-père, Guillaume Allez, qui était aussi l'un de ses parrains[1].
-Le Lacheur est largement crédité au Costa Rica comme celui qui a transformé l'économie de ce pays d'Amérique centrale en mettant en place une route commerciale régulière et directe pour les producteurs de café du Costa Rica vers l’Europe, contribuant ainsi à créer des débouchés commerciaux pour le café du Costa Rica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Le Lacheur est né le 15 octobre 1802 et a été baptisé Guillaume Le Lacheur (version française du prénom) dans l'église paroissiale de La Forêt, sur l’île anglo-normande de Guernesey, le 31 octobre, par ses parents. Il a été nommé d’après son grand-père, Guillaume Allez, qui était aussi l'un de ses parrains.
+Le Lacheur est largement crédité au Costa Rica comme celui qui a transformé l'économie de ce pays d'Amérique centrale en mettant en place une route commerciale régulière et directe pour les producteurs de café du Costa Rica vers l’Europe, contribuant ainsi à créer des débouchés commerciaux pour le café du Costa Rica.
 </t>
         </is>
       </c>
